--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T22:56:43+00:00</t>
+    <t>2024-03-11T22:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,6 +472,22 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Consent.extension:accessType</t>
+  </si>
+  <si>
+    <t>accessType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/access-type}
+</t>
+  </si>
+  <si>
+    <t>Type of access restrictions on file downloads ( open | registered | controlled )</t>
+  </si>
+  <si>
+    <t>Access type code associated with downloads affected by this Access Policy ( open | registered | controlled )</t>
   </si>
   <si>
     <t>Consent.extension:website</t>
@@ -1486,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2467,7 +2483,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2693,7 +2709,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -2797,43 +2813,41 @@
         <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2881,7 +2895,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2890,10 +2904,10 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -2902,7 +2916,7 @@
         <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>75</v>
@@ -2910,14 +2924,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2930,24 +2944,26 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3007,27 +3023,27 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3035,35 +3051,33 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3087,13 +3101,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3111,13 +3125,13 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -3126,24 +3140,24 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3166,16 +3180,20 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3199,13 +3217,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3223,7 +3241,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>88</v>
@@ -3238,24 +3256,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3266,25 +3284,25 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3296,29 +3314,29 @@
         <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3335,13 +3353,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -3350,24 +3368,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3375,10 +3393,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3390,17 +3408,15 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3410,7 +3426,7 @@
         <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>75</v>
@@ -3425,13 +3441,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3449,13 +3465,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -3464,24 +3480,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3504,16 +3520,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3563,7 +3579,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3578,35 +3594,35 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3618,16 +3634,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3677,13 +3693,13 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -3692,28 +3708,28 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3732,15 +3748,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3789,7 +3807,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3804,35 +3822,35 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3852,9 +3870,7 @@
       <c r="M21" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3903,13 +3919,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -3918,24 +3934,24 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3946,7 +3962,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3955,18 +3971,20 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4015,25 +4033,25 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4058,7 +4076,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4127,20 +4145,20 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
@@ -4148,7 +4166,7 @@
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4156,21 +4174,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4182,7 +4200,7 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>246</v>
@@ -4190,9 +4208,7 @@
       <c r="M24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4247,13 +4263,13 @@
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
@@ -4262,7 +4278,7 @@
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4270,14 +4286,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4290,10 +4306,10 @@
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>134</v>
@@ -4305,11 +4321,9 @@
         <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4378,7 +4392,7 @@
         <v>75</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4393,35 +4407,39 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4469,19 +4487,19 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
@@ -4490,7 +4508,7 @@
         <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -4498,10 +4516,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4527,14 +4545,12 @@
         <v>102</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4583,7 +4599,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4592,7 +4608,7 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>100</v>
@@ -4612,10 +4628,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4635,23 +4651,21 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O28" t="s" s="2">
         <v>265</v>
       </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4675,13 +4689,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4699,7 +4713,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4708,7 +4722,7 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
@@ -4728,10 +4742,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4742,7 +4756,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4754,16 +4768,20 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4787,13 +4805,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4811,19 +4829,19 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
@@ -4840,10 +4858,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4854,7 +4872,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4863,16 +4881,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4923,20 +4941,20 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4944,7 +4962,7 @@
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>75</v>
@@ -4952,21 +4970,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4978,7 +4996,7 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>246</v>
@@ -4986,9 +5004,7 @@
       <c r="M31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5043,13 +5059,13 @@
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
@@ -5058,7 +5074,7 @@
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5066,14 +5082,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5086,10 +5102,10 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>134</v>
@@ -5101,11 +5117,9 @@
         <v>252</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5174,7 +5188,7 @@
         <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5182,42 +5196,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5265,19 +5283,19 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
@@ -5286,7 +5304,7 @@
         <v>75</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5294,10 +5312,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5305,7 +5323,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5317,16 +5335,16 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5377,10 +5395,10 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5406,10 +5424,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5432,13 +5450,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5489,7 +5507,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5518,10 +5536,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5541,16 +5559,16 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5601,7 +5619,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5613,7 +5631,7 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -5630,10 +5648,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5653,16 +5671,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5713,7 +5731,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5725,7 +5743,7 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5734,7 +5752,7 @@
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>75</v>
@@ -5742,10 +5760,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5756,7 +5774,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5768,13 +5786,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5813,14 +5831,16 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>248</v>
@@ -5829,13 +5849,13 @@
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -5844,7 +5864,7 @@
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -5852,14 +5872,12 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5868,7 +5886,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5880,13 +5898,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5925,19 +5943,17 @@
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5946,10 +5962,10 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5969,43 +5985,41 @@
         <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6062,10 +6076,10 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6074,7 +6088,7 @@
         <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6082,42 +6096,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6141,13 +6159,13 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -6165,19 +6183,19 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6186,7 +6204,7 @@
         <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -6220,13 +6238,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6253,13 +6271,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6306,10 +6324,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6320,7 +6338,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6329,25 +6347,23 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q43" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6391,19 +6407,19 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6420,10 +6436,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6434,7 +6450,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6449,17 +6465,19 @@
         <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="R44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6503,20 +6521,20 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6524,7 +6542,7 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -6532,21 +6550,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6558,7 +6576,7 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>246</v>
@@ -6566,9 +6584,7 @@
       <c r="M45" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6623,13 +6639,13 @@
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -6638,7 +6654,7 @@
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>75</v>
@@ -6646,14 +6662,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6666,10 +6682,10 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>134</v>
@@ -6681,11 +6697,9 @@
         <v>252</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6754,7 +6768,7 @@
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -6762,42 +6776,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6821,13 +6839,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>315</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -6845,19 +6863,19 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -6866,7 +6884,7 @@
         <v>75</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -6900,13 +6918,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6933,13 +6951,13 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -6986,10 +7004,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6997,10 +7015,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7009,27 +7027,23 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7049,13 +7063,13 @@
         <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>327</v>
+        <v>75</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>328</v>
+        <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -7073,13 +7087,13 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -7102,10 +7116,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7128,22 +7142,24 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="R50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7163,13 +7179,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7187,7 +7203,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7216,10 +7232,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7242,16 +7258,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7277,9 +7293,11 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="Z51" t="s" s="2">
         <v>340</v>
       </c>
@@ -7299,7 +7317,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7354,7 +7372,7 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>342</v>
@@ -7389,13 +7407,11 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y52" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y52" s="2"/>
+      <c r="Z52" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7442,10 +7458,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7468,16 +7484,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7503,14 +7519,14 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7527,7 +7543,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7556,10 +7572,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7570,7 +7586,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7582,16 +7598,16 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7617,13 +7633,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -7641,13 +7657,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -7670,10 +7686,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7684,7 +7700,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7696,22 +7712,22 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7755,19 +7771,19 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
@@ -7776,7 +7792,7 @@
         <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -7784,10 +7800,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7798,7 +7814,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7807,23 +7823,25 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>241</v>
+        <v>363</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="R56" t="s" s="2">
         <v>75</v>
       </c>
@@ -7867,20 +7885,20 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
@@ -7888,7 +7906,7 @@
         <v>75</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
@@ -7896,21 +7914,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7922,7 +7940,7 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>246</v>
@@ -7930,9 +7948,7 @@
       <c r="M57" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -7987,13 +8003,13 @@
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
@@ -8002,7 +8018,7 @@
         <v>75</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
@@ -8010,14 +8026,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8030,10 +8046,10 @@
         <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>134</v>
@@ -8045,11 +8061,9 @@
         <v>252</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8118,7 +8132,7 @@
         <v>75</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>75</v>
@@ -8126,42 +8140,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8185,13 +8203,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -8209,19 +8227,19 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -8230,7 +8248,7 @@
         <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -8264,13 +8282,13 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8297,13 +8315,13 @@
         <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>75</v>
+        <v>373</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>75</v>
@@ -8350,10 +8368,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8361,10 +8379,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8373,16 +8391,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8433,13 +8451,13 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
@@ -8457,6 +8475,118 @@
         <v>75</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-research-access-policy.xlsx
+++ b/StructureDefinition-ncpi-research-access-policy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
